--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.512371</v>
+        <v>0.015565</v>
       </c>
       <c r="H2">
-        <v>1.537113</v>
+        <v>0.046695</v>
       </c>
       <c r="I2">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="J2">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.91788066666667</v>
+        <v>5.347438999999999</v>
       </c>
       <c r="N2">
-        <v>116.753642</v>
+        <v>16.042317</v>
       </c>
       <c r="O2">
-        <v>0.5444452591568125</v>
+        <v>0.1410514228841643</v>
       </c>
       <c r="P2">
-        <v>0.5444452591568125</v>
+        <v>0.1410514228841643</v>
       </c>
       <c r="Q2">
-        <v>19.94039343506067</v>
+        <v>0.08323288803499998</v>
       </c>
       <c r="R2">
-        <v>179.463540915546</v>
+        <v>0.7490959923149999</v>
       </c>
       <c r="S2">
-        <v>0.5230942378070396</v>
+        <v>0.06018546344017957</v>
       </c>
       <c r="T2">
-        <v>0.5230942378070396</v>
+        <v>0.06018546344017956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.512371</v>
+        <v>0.015565</v>
       </c>
       <c r="H3">
-        <v>1.537113</v>
+        <v>0.046695</v>
       </c>
       <c r="I3">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="J3">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.52471933333334</v>
+        <v>24.52471933333333</v>
       </c>
       <c r="N3">
-        <v>73.57415800000001</v>
+        <v>73.574158</v>
       </c>
       <c r="O3">
-        <v>0.3430908092747486</v>
+        <v>0.6468978061837527</v>
       </c>
       <c r="P3">
-        <v>0.3430908092747486</v>
+        <v>0.6468978061837526</v>
       </c>
       <c r="Q3">
-        <v>12.56575496953934</v>
+        <v>0.3817272564233333</v>
       </c>
       <c r="R3">
-        <v>113.091794725854</v>
+        <v>3.43554530781</v>
       </c>
       <c r="S3">
-        <v>0.3296361247669234</v>
+        <v>0.2760258880591249</v>
       </c>
       <c r="T3">
-        <v>0.3296361247669234</v>
+        <v>0.2760258880591248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.512371</v>
+        <v>0.015565</v>
       </c>
       <c r="H4">
-        <v>1.537113</v>
+        <v>0.046695</v>
       </c>
       <c r="I4">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="J4">
-        <v>0.9607838970205388</v>
+        <v>0.4266916434413122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.117344</v>
       </c>
       <c r="O4">
-        <v>0.1124639315684388</v>
+        <v>0.2120507709320831</v>
       </c>
       <c r="P4">
-        <v>0.1124639315684388</v>
+        <v>0.2120507709320831</v>
       </c>
       <c r="Q4">
-        <v>4.119009220874667</v>
+        <v>0.1251288197866667</v>
       </c>
       <c r="R4">
-        <v>37.071082987872</v>
+        <v>1.12615937808</v>
       </c>
       <c r="S4">
-        <v>0.1080535344465758</v>
+        <v>0.0904802919420078</v>
       </c>
       <c r="T4">
-        <v>0.1080535344465758</v>
+        <v>0.09048029194200777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.06274</v>
       </c>
       <c r="I5">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="J5">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.91788066666667</v>
+        <v>5.347438999999999</v>
       </c>
       <c r="N5">
-        <v>116.753642</v>
+        <v>16.042317</v>
       </c>
       <c r="O5">
-        <v>0.5444452591568125</v>
+        <v>0.1410514228841643</v>
       </c>
       <c r="P5">
-        <v>0.5444452591568125</v>
+        <v>0.1410514228841643</v>
       </c>
       <c r="Q5">
-        <v>0.8139026110088891</v>
+        <v>0.1118327742866667</v>
       </c>
       <c r="R5">
-        <v>7.32512349908</v>
+        <v>1.00649496858</v>
       </c>
       <c r="S5">
-        <v>0.02135102134977302</v>
+        <v>0.08086595944398471</v>
       </c>
       <c r="T5">
-        <v>0.02135102134977302</v>
+        <v>0.08086595944398471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.06274</v>
       </c>
       <c r="I6">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="J6">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.52471933333334</v>
+        <v>24.52471933333333</v>
       </c>
       <c r="N6">
-        <v>73.57415800000001</v>
+        <v>73.574158</v>
       </c>
       <c r="O6">
-        <v>0.3430908092747486</v>
+        <v>0.6468978061837527</v>
       </c>
       <c r="P6">
-        <v>0.3430908092747486</v>
+        <v>0.6468978061837526</v>
       </c>
       <c r="Q6">
-        <v>0.5128936303244446</v>
+        <v>0.5128936303244445</v>
       </c>
       <c r="R6">
-        <v>4.616042672920001</v>
+        <v>4.61604267292</v>
       </c>
       <c r="S6">
-        <v>0.01345468450782524</v>
+        <v>0.3708719181246278</v>
       </c>
       <c r="T6">
-        <v>0.01345468450782524</v>
+        <v>0.3708719181246278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.06274</v>
       </c>
       <c r="I7">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="J7">
-        <v>0.03921610297946124</v>
+        <v>0.5733083565586878</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.117344</v>
       </c>
       <c r="O7">
-        <v>0.1124639315684388</v>
+        <v>0.2120507709320831</v>
       </c>
       <c r="P7">
-        <v>0.1124639315684388</v>
+        <v>0.2120507709320831</v>
       </c>
       <c r="Q7">
         <v>0.1681246847288889</v>
@@ -880,10 +880,10 @@
         <v>1.51312216256</v>
       </c>
       <c r="S7">
-        <v>0.004410397121862976</v>
+        <v>0.1215704789900754</v>
       </c>
       <c r="T7">
-        <v>0.004410397121862976</v>
+        <v>0.1215704789900753</v>
       </c>
     </row>
   </sheetData>
